--- a/medicine/Sexualité et sexologie/Livre_des_quarante-huit_positions/Livre_des_quarante-huit_positions.xlsx
+++ b/medicine/Sexualité et sexologie/Livre_des_quarante-huit_positions/Livre_des_quarante-huit_positions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le livre des quarante-huit positions est un ancien livre japonais de positions sexuelles, comparable au Kamasutra. Comme son nom l'indique, il compte 48 positions. Il daterait de l'époque d'Edo[1]. Selon la série de hentaïs Step up, Love Story, ce livre japonais est inspiré d'un ancien livre chinois comportant 32 positions (les 16 positions rajoutées dans le livre japonais étant des variations).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le livre des quarante-huit positions est un ancien livre japonais de positions sexuelles, comparable au Kamasutra. Comme son nom l'indique, il compte 48 positions. Il daterait de l'époque d'Edo. Selon la série de hentaïs Step up, Love Story, ce livre japonais est inspiré d'un ancien livre chinois comportant 32 positions (les 16 positions rajoutées dans le livre japonais étant des variations).
 </t>
         </is>
       </c>
